--- a/sorting_results.xlsx
+++ b/sorting_results.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ХАІ\6 аспірантура\дружинін\алгоритми\alg\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C9F212-74F8-4151-8780-CE27288F6BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Результати" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Алгоритм</t>
   </si>
@@ -63,15 +74,42 @@
   <si>
     <t>Злиттям</t>
   </si>
+  <si>
+    <t xml:space="preserve">Експеременти із сортуванням алгоритмів проводились на мові Python. Гітхаб (якщо цікаво): https://github.com/For2natop1ua/python_alg </t>
+  </si>
+  <si>
+    <t>Для цього використовувався масив випадкових цілих чисел. Для кожного розміру - 3 прогони і узято середній час.</t>
+  </si>
+  <si>
+    <t>Сортування злиттям - 0.061 сек на 33 тис. Найстабільніший. Зростання часу ідеально рівне.</t>
+  </si>
+  <si>
+    <t>Сортування Шелла - 0.083 сек на 33 тис. На 16 тис. навіть швидший за Швидке сортування. Вдалі проміжки.</t>
+  </si>
+  <si>
+    <t>Сортування вставками та Вибором - близнюки по 15 сек на 33 тис. На 1 тис. ще живі (по 0.024 сек). Далі - не придатні.</t>
+  </si>
+  <si>
+    <t>Гном'яче сортування - 44 сек на 33к. Найповільніший на великих даних і дивно повільний навіть на 1 тис. елементів (0.11 сек).</t>
+  </si>
+  <si>
+    <t>Бульбашкове сортування - 48 сек на 33 тис. Від 22 тис. до 33 тис. стрибок x3, не сортування а наруга над CPU.</t>
+  </si>
+  <si>
+    <t>Висновок за цим експериментом: краще використовувати Швидке, Злиттям або Шелла. Решта алгоритмів суттєво програють за швидкістю.</t>
+  </si>
+  <si>
+    <t>Швидке сортування - 0.064 сек на 33 тис. Найшвидший. Але на 13к елементів просів до 0.036 - попався майже відсортований масив.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,23 +152,3514 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Лінійна</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> шкала</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Результати!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Бульбашкове</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Результати!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4444 елементів</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7777 елементів</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13333 елементів</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16666 елементів</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22222 елементів</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33333 елементів</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Результати!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.8325133333331301E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86715886666667075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6009627999999911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4301216666666692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7434769666666634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.837853666666661</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.223015899999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.557579666666697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08D2-434D-94C1-322050DB5AE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Результати!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставками</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Результати!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4444 елементів</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7777 елементів</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13333 елементів</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16666 елементів</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22222 елементів</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33333 елементів</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Результати!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.3975400000002381E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3129947000000281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0063931999999911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1640187333333269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1999467999999829</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1390869333332976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6293426333332954</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.104024700000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-08D2-434D-94C1-322050DB5AE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Результати!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вибором</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Результати!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4444 елементів</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7777 елементів</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13333 елементів</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16666 елементів</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22222 елементів</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33333 елементів</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Результати!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.3988200000019329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33502586666666428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.043811066666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2066368666667131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9220547999999549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2467438666667094</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5422402999999649</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.081134966666619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-08D2-434D-94C1-322050DB5AE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Результати!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Гном'яче</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Результати!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4444 елементів</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7777 елементів</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13333 елементів</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16666 елементів</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22222 елементів</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33333 елементів</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Результати!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.11144589999999729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6892324999999839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7158137999999972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2404085999999852</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8724792666666872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.02498916666665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.522804733333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.222476366666797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-08D2-434D-94C1-322050DB5AE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Результати!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Швидке</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Результати!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4444 елементів</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7777 елементів</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13333 елементів</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16666 елементів</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22222 елементів</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33333 елементів</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Результати!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.981233333310684E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3079666666540106E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7627366666677819E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.81224000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5899100000013583E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8107766666607858E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.214516666667199E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4465400000017326E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-08D2-434D-94C1-322050DB5AE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Результати!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Шелла</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Результати!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4444 елементів</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7777 елементів</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13333 елементів</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16666 елементів</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22222 елементів</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33333 елементів</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Результати!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.763733333310332E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7394000000197902E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8863199999998411E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9470333333326081E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.450769999997798E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3376066666657302E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9596999999968531E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3370766666651733E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-08D2-434D-94C1-322050DB5AE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Результати!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Злиттям</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Результати!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4444 елементів</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7777 елементів</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13333 елементів</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16666 елементів</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22222 елементів</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33333 елементів</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Результати!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.9735666666823208E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.399533333332025E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6843266666683121E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7147633333327882E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1568266666643773E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6906833333290098E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1357233333305892E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1373400000017377E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-08D2-434D-94C1-322050DB5AE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1032497935"/>
+        <c:axId val="1032499599"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1032497935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032499599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1032499599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA"/>
+                  <a:t>Час,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="uk-UA" baseline="0"/>
+                  <a:t> секунди</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032497935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Логарифмічна</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> шкала</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Результати!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Бульбашкове</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Результати!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4444 елементів</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7777 елементів</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13333 елементів</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16666 елементів</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22222 елементів</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33333 елементів</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Результати!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.8325133333331301E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86715886666667075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6009627999999911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4301216666666692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7434769666666634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.837853666666661</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.223015899999989</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.557579666666697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E39-43CD-8580-4D31CDFEA6BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Результати!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вставками</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Результати!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4444 елементів</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7777 елементів</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13333 елементів</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16666 елементів</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22222 елементів</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33333 елементів</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Результати!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.3975400000002381E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3129947000000281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0063931999999911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1640187333333269</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1999467999999829</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1390869333332976</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6293426333332954</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.104024700000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E39-43CD-8580-4D31CDFEA6BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Результати!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Вибором</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Результати!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4444 елементів</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7777 елементів</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13333 елементів</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16666 елементів</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22222 елементів</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33333 елементів</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Результати!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.3988200000019329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33502586666666428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.043811066666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2066368666667131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9220547999999549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2467438666667094</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5422402999999649</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.081134966666619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9E39-43CD-8580-4D31CDFEA6BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Результати!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Гном'яче</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Результати!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4444 елементів</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7777 елементів</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13333 елементів</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16666 елементів</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22222 елементів</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33333 елементів</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Результати!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.11144589999999729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6892324999999839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7158137999999972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2404085999999852</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8724792666666872</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.02498916666665</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.522804733333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44.222476366666797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9E39-43CD-8580-4D31CDFEA6BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Результати!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Швидке</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Результати!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4444 елементів</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7777 елементів</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13333 елементів</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16666 елементів</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22222 елементів</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33333 елементів</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Результати!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.981233333310684E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3079666666540106E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7627366666677819E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.81224000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5899100000013583E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8107766666607858E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.214516666667199E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.4465400000017326E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9E39-43CD-8580-4D31CDFEA6BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Результати!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Шелла</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Результати!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4444 елементів</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7777 елементів</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13333 елементів</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16666 елементів</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22222 елементів</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33333 елементів</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Результати!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.763733333310332E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7394000000197902E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8863199999998411E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9470333333326081E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.450769999997798E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3376066666657302E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9596999999968531E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3370766666651733E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9E39-43CD-8580-4D31CDFEA6BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Результати!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Злиттям</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Результати!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4444 елементів</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7777 елементів</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11111 елементів</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13333 елементів</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16666 елементів</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22222 елементів</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33333 елементів</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Результати!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.9735666666823208E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.399533333332025E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6843266666683121E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7147633333327882E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1568266666643773E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6906833333290098E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1357233333305892E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1373400000017377E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9E39-43CD-8580-4D31CDFEA6BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1032497935"/>
+        <c:axId val="1032499599"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1032497935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032499599"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1032499599"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>час, секунди</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032497935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A49906-FE5D-479D-ADE4-BE009D8A6DDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C3BD70-408F-433C-896E-E715F0063F4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,9 +3697,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -202,9 +3731,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +3783,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,14 +3976,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="3" width="16" customWidth="1"/>
+    <col min="4" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,210 +4022,350 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>0.0583251333333313</v>
+        <v>5.8325133333331301E-2</v>
       </c>
       <c r="C2" s="2">
-        <v>0.8671588666666707</v>
+        <v>0.86715886666667075</v>
       </c>
       <c r="D2" s="2">
-        <v>2.600962799999991</v>
+        <v>2.6009627999999911</v>
       </c>
       <c r="E2" s="2">
-        <v>5.430121666666669</v>
+        <v>5.4301216666666692</v>
       </c>
       <c r="F2" s="2">
-        <v>7.743476966666663</v>
+        <v>7.7434769666666634</v>
       </c>
       <c r="G2" s="2">
-        <v>12.83785366666666</v>
+        <v>12.837853666666661</v>
       </c>
       <c r="H2" s="2">
-        <v>16.22301589999999</v>
+        <v>16.223015899999989</v>
       </c>
       <c r="I2" s="2">
-        <v>48.5575796666667</v>
+        <v>48.557579666666697</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>0.02397540000000238</v>
+        <v>2.3975400000002381E-2</v>
       </c>
       <c r="C3" s="2">
         <v>0.3129947000000281</v>
       </c>
       <c r="D3" s="2">
-        <v>1.006393199999991</v>
+        <v>1.0063931999999911</v>
       </c>
       <c r="E3" s="2">
-        <v>2.164018733333327</v>
+        <v>2.1640187333333269</v>
       </c>
       <c r="F3" s="2">
-        <v>3.199946799999983</v>
+        <v>3.1999467999999829</v>
       </c>
       <c r="G3" s="2">
-        <v>5.139086933333298</v>
+        <v>5.1390869333332976</v>
       </c>
       <c r="H3" s="2">
-        <v>6.629342633333295</v>
+        <v>6.6293426333332954</v>
       </c>
       <c r="I3" s="2">
-        <v>15.10402470000001</v>
+        <v>15.104024700000011</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2">
-        <v>0.02398820000001933</v>
+        <v>2.3988200000019329E-2</v>
       </c>
       <c r="C4" s="2">
-        <v>0.3350258666666643</v>
+        <v>0.33502586666666428</v>
       </c>
       <c r="D4" s="2">
         <v>1.043811066666668</v>
       </c>
       <c r="E4" s="2">
-        <v>2.206636866666713</v>
+        <v>2.2066368666667131</v>
       </c>
       <c r="F4" s="2">
-        <v>2.922054799999955</v>
+        <v>2.9220547999999549</v>
       </c>
       <c r="G4" s="2">
-        <v>5.246743866666709</v>
+        <v>5.2467438666667094</v>
       </c>
       <c r="H4" s="2">
-        <v>6.542240299999965</v>
+        <v>6.5422402999999649</v>
       </c>
       <c r="I4" s="2">
-        <v>15.08113496666662</v>
+        <v>15.081134966666619</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2">
-        <v>0.1114458999999973</v>
+        <v>0.11144589999999729</v>
       </c>
       <c r="C5" s="2">
-        <v>1.689232499999984</v>
+        <v>1.6892324999999839</v>
       </c>
       <c r="D5" s="2">
-        <v>3.715813799999997</v>
+        <v>3.7158137999999972</v>
       </c>
       <c r="E5" s="2">
-        <v>6.240408599999985</v>
+        <v>6.2404085999999852</v>
       </c>
       <c r="F5" s="2">
-        <v>7.872479266666687</v>
+        <v>7.8724792666666872</v>
       </c>
       <c r="G5" s="2">
         <v>13.02498916666665</v>
       </c>
       <c r="H5" s="2">
-        <v>26.52280473333333</v>
+        <v>26.522804733333331</v>
       </c>
       <c r="I5" s="2">
-        <v>44.2224763666668</v>
+        <v>44.222476366666797</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2">
-        <v>0.001981233333310684</v>
+        <v>1.981233333310684E-3</v>
       </c>
       <c r="C6" s="2">
-        <v>0.009307966666654011</v>
+        <v>9.3079666666540106E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>0.01762736666667782</v>
+        <v>1.7627366666677819E-2</v>
       </c>
       <c r="E6" s="2">
-        <v>0.0181224000000005</v>
+        <v>1.81224000000005E-2</v>
       </c>
       <c r="F6" s="2">
-        <v>0.03589910000001358</v>
+        <v>3.5899100000013583E-2</v>
       </c>
       <c r="G6" s="2">
-        <v>0.02810776666660786</v>
+        <v>2.8107766666607858E-2</v>
       </c>
       <c r="H6" s="2">
-        <v>0.06214516666667199</v>
+        <v>6.214516666667199E-2</v>
       </c>
       <c r="I6" s="2">
-        <v>0.06446540000001733</v>
+        <v>6.4465400000017326E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2">
-        <v>0.001763733333310332</v>
+        <v>1.763733333310332E-3</v>
       </c>
       <c r="C7" s="2">
-        <v>0.00973940000001979</v>
+        <v>9.7394000000197902E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>0.01886319999999841</v>
+        <v>1.8863199999998411E-2</v>
       </c>
       <c r="E7" s="2">
-        <v>0.01947033333332608</v>
+        <v>1.9470333333326081E-2</v>
       </c>
       <c r="F7" s="2">
-        <v>0.04450769999997798</v>
+        <v>4.450769999997798E-2</v>
       </c>
       <c r="G7" s="2">
-        <v>0.0333760666666573</v>
+        <v>3.3376066666657302E-2</v>
       </c>
       <c r="H7" s="2">
-        <v>0.06959699999996853</v>
+        <v>6.9596999999968531E-2</v>
       </c>
       <c r="I7" s="2">
-        <v>0.08337076666665173</v>
+        <v>8.3370766666651733E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2">
-        <v>0.001973566666682321</v>
+        <v>1.9735666666823208E-3</v>
       </c>
       <c r="C8" s="2">
-        <v>0.009399533333332025</v>
+        <v>9.399533333332025E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>0.01684326666668312</v>
+        <v>1.6843266666683121E-2</v>
       </c>
       <c r="E8" s="2">
-        <v>0.01714763333332788</v>
+        <v>1.7147633333327882E-2</v>
       </c>
       <c r="F8" s="2">
-        <v>0.03156826666664377</v>
+        <v>3.1568266666643773E-2</v>
       </c>
       <c r="G8" s="2">
-        <v>0.0269068333332901</v>
+        <v>2.6906833333290098E-2</v>
       </c>
       <c r="H8" s="2">
-        <v>0.05135723333330589</v>
+        <v>5.1357233333305892E-2</v>
       </c>
       <c r="I8" s="2">
-        <v>0.06137340000001738</v>
-      </c>
+        <v>6.1373400000017377E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="A41:I42"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A38:I38"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sorting_results.xlsx
+++ b/sorting_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ХАІ\6 аспірантура\дружинін\алгоритми\alg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C9F212-74F8-4151-8780-CE27288F6BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC59635-C5F9-47A5-B6E6-1CF634AA3370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,25 +81,25 @@
     <t>Для цього використовувався масив випадкових цілих чисел. Для кожного розміру - 3 прогони і узято середній час.</t>
   </si>
   <si>
-    <t>Сортування злиттям - 0.061 сек на 33 тис. Найстабільніший. Зростання часу ідеально рівне.</t>
-  </si>
-  <si>
-    <t>Сортування Шелла - 0.083 сек на 33 тис. На 16 тис. навіть швидший за Швидке сортування. Вдалі проміжки.</t>
-  </si>
-  <si>
-    <t>Сортування вставками та Вибором - близнюки по 15 сек на 33 тис. На 1 тис. ще живі (по 0.024 сек). Далі - не придатні.</t>
-  </si>
-  <si>
-    <t>Гном'яче сортування - 44 сек на 33к. Найповільніший на великих даних і дивно повільний навіть на 1 тис. елементів (0.11 сек).</t>
-  </si>
-  <si>
-    <t>Бульбашкове сортування - 48 сек на 33 тис. Від 22 тис. до 33 тис. стрибок x3, не сортування а наруга над CPU.</t>
-  </si>
-  <si>
     <t>Висновок за цим експериментом: краще використовувати Швидке, Злиттям або Шелла. Решта алгоритмів суттєво програють за швидкістю.</t>
   </si>
   <si>
-    <t>Швидке сортування - 0.064 сек на 33 тис. Найшвидший. Але на 13к елементів просів до 0.036 - попався майже відсортований масив.</t>
+    <t>Сортування вставками та Вибором - близнюки по 15 сек на 33 тис. На 1 тис. ще живі (по 0.024 сек). Далі - непридатні.</t>
+  </si>
+  <si>
+    <t>Швидке сортування - 0.064 сек на 33 тис. Трохи відстало від Злиття. На 13 тис. елементів просів до 0.036 - попався майже відсортований масив.</t>
+  </si>
+  <si>
+    <t>Сортування злиттям - 0.061 сек на 33 тис. Найшвидший на максимальному масиві цього експерименту. Зростання не ідеально рівне (аномалія на 13 тис. елементів), але результат стабільний.</t>
+  </si>
+  <si>
+    <t>Сортування Шелла - 0.083 сек на 33 тис. На 16 тис. трохи повільніше за Швидке.</t>
+  </si>
+  <si>
+    <t>Бульбашкове сортування - 48 сек на 33 тис. Найповільніший. Від 22 тис. до 33 тис. стрибок x3, не сортування а наруга над CPU.</t>
+  </si>
+  <si>
+    <t>Гном'яче сортування - 44 сек на 33к. Передостанній результат на великих даних і дивно повільний навіть на 1 тис. елементів (0.11 сек) - повільніше навіть за бульбашку.</t>
   </si>
 </sst>
 </file>
@@ -152,15 +152,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3979,8 +3985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4226,132 +4232,132 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="A35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+    <row r="36" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="A37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="A38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+    <row r="39" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="A40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="A41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/sorting_results.xlsx
+++ b/sorting_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ХАІ\6 аспірантура\дружинін\алгоритми\alg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC59635-C5F9-47A5-B6E6-1CF634AA3370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F6C183-CE01-415C-88FA-6BB9ABA98F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,13 +93,13 @@
     <t>Сортування злиттям - 0.061 сек на 33 тис. Найшвидший на максимальному масиві цього експерименту. Зростання не ідеально рівне (аномалія на 13 тис. елементів), але результат стабільний.</t>
   </si>
   <si>
-    <t>Сортування Шелла - 0.083 сек на 33 тис. На 16 тис. трохи повільніше за Швидке.</t>
-  </si>
-  <si>
     <t>Бульбашкове сортування - 48 сек на 33 тис. Найповільніший. Від 22 тис. до 33 тис. стрибок x3, не сортування а наруга над CPU.</t>
   </si>
   <si>
     <t>Гном'яче сортування - 44 сек на 33к. Передостанній результат на великих даних і дивно повільний навіть на 1 тис. елементів (0.11 сек) - повільніше навіть за бульбашку.</t>
+  </si>
+  <si>
+    <t>Сортування Шелла - 0.083 сек на 33 тис. Трохи повільніше за Швидке.</t>
   </si>
 </sst>
 </file>
@@ -157,6 +157,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -164,9 +167,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3985,8 +3985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4232,132 +4232,132 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="A37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="A39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="A40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
